--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/spec/fr/ExportSpecAllergens.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/spec/fr/ExportSpecAllergens.xlsx
@@ -643,19 +643,19 @@
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="71.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="62.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="991" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -784,7 +784,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.55"/>
@@ -937,7 +937,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.11"/>
@@ -1229,7 +1229,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
